--- a/搬家物品清单.xlsx
+++ b/搬家物品清单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7815224-00CF-42F7-94B9-BCBFE9B29A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3512B40-544D-4D35-8882-330C477AB5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{C6D6CAD9-8040-45BB-A64E-7FCB3858A4A0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>运动鞋、休闲鞋、拖鞋</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,10 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>扫床扫把、洗衣盆、泡脚桶、洗衣粉、洁厕剂、厨房清洁剂、浴室清洁剂、钢丝球、抹布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大型家电</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -197,6 +193,42 @@
   </si>
   <si>
     <t>羽绒服、大衣、裤子、外套、毛衣、保暖内衣、衬衫、短袖、短裤、内裤、袜子、腰带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钥匙、身份证、现金、驾照、毕业证等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵重物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待洗衣物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易碎物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫床扫把、洗衣盆、泡脚桶、洗衣粉、洁厕剂、厨房清洁剂、浴室清洁剂、钢丝球、抹布、扫把、拖把、拖把桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闲散物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑜伽垫、对联</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -573,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE24A312-2AE0-4F6D-A594-57D28F2E9F90}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -602,7 +634,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -622,135 +654,171 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
-        <v>8</v>
+      <c r="A20" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B21" s="1" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B22" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
         <v>38</v>
       </c>
-      <c r="C23" t="s">
-        <v>39</v>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B28" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B29" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
